--- a/biology/Médecine/Génotoxicité/Génotoxicité.xlsx
+++ b/biology/Médecine/Génotoxicité/Génotoxicité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9notoxicit%C3%A9</t>
+          <t>Génotoxicité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En pharmacologie, la génotoxicité d’une substance ou d’un rayonnement est sa capacité à compromettre l'intégrité physique (cassure chromosomique) ou fonctionnelle du génome.
 Le chromosome, la cellule et l'organisme disposent de mécanismes de réparation de l'ADN ou d'élimination des cellules mutantes (par apoptose), mais si la réparation est imparfaite, incomplète ou absente, les lésions de l'ADN conduisent à des mutations permanentes et irréversibles (généralement neutres ou délétères). 
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9notoxicit%C3%A9</t>
+          <t>Génotoxicité</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,13 +526,15 @@
           <t>Éléments de définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un agent (substance, rayonnement ionisant, rayonnement micro-onde, certains virus) est dit génotoxique quand il se montre capable de modifier irréversiblement le génome d'une cellule ou d'un organisme ou de perturber l'expression normale des gènes. Quand l'ADN de gamètes est concerné (spermatozoïdes, ovocytes) si la mutation est délétère mais viable, elle peut être transmise à la descendance, de même, parfois, si elle survient plus tardivement durant l'embryogenèse ou le développement de l'organisme[1]. 
-Certaines mutations enclenchent un processus tumoral ou cancéreux ; la présence d'effets d'agents mutagènes dans l'organisme est l'un des indicateurs du risque de cancer[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un agent (substance, rayonnement ionisant, rayonnement micro-onde, certains virus) est dit génotoxique quand il se montre capable de modifier irréversiblement le génome d'une cellule ou d'un organisme ou de perturber l'expression normale des gènes. Quand l'ADN de gamètes est concerné (spermatozoïdes, ovocytes) si la mutation est délétère mais viable, elle peut être transmise à la descendance, de même, parfois, si elle survient plus tardivement durant l'embryogenèse ou le développement de l'organisme. 
+Certaines mutations enclenchent un processus tumoral ou cancéreux ; la présence d'effets d'agents mutagènes dans l'organisme est l'un des indicateurs du risque de cancer.
 L'exposition à l'agent génotoxique peut se faire via l'eau, l'air, le sol, l'alimentation ou la proximité de sources de rayonnement mutagène. 
-La mutagénicité n'est qu’un cas particulier de la génotoxicité[3]. 
-La génotoxicité est l'une des formes de la cytotoxicité. Le concept de génotoxicité n'est pas synonyme de celui de mutagénicité et encore moins de celui de cancérogénicité (car la plupart des cassures de l'ADN sont réparées), mais un produit génotoxique est souvent mutagène et potentiellement cancérigène[2]. Un test de génotoxicité n'est différent d'un test de mutagénicité et encore moins d'un test de dépistage de cancers (qui recherchera des marqueurs tumoraux)[2]. En outre, si un cancérogène est souvent génotoxique, il existe des cancérogènes non-génotoxiques, les dioxines par exemple[4].
+La mutagénicité n'est qu’un cas particulier de la génotoxicité. 
+La génotoxicité est l'une des formes de la cytotoxicité. Le concept de génotoxicité n'est pas synonyme de celui de mutagénicité et encore moins de celui de cancérogénicité (car la plupart des cassures de l'ADN sont réparées), mais un produit génotoxique est souvent mutagène et potentiellement cancérigène. Un test de génotoxicité n'est différent d'un test de mutagénicité et encore moins d'un test de dépistage de cancers (qui recherchera des marqueurs tumoraux). En outre, si un cancérogène est souvent génotoxique, il existe des cancérogènes non-génotoxiques, les dioxines par exemple.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9notoxicit%C3%A9</t>
+          <t>Génotoxicité</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,17 +563,15 @@
           <t>Mécanismes d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Un agent mutagène peut avoir deux types d'effets :
-impact direct, conduisant à un événement clastogène (sous l'effet de la radioactivité et des rayonnements ionisants par exemple, qui sont notamment source de cassure de l'ADN double-brin, considérées comme les plus graves quant à l'effet biologique[5]) ;
-impact indirect, qui dégrade la machinerie cellulaire de maintien et de réparation de l’intégrité du génome (ex : modification des protéines de l'appareil mitotique), conduisant à un événement aneugène, c'est dire se traduisant par des anomalies de la ségragation chromosomique)[2].
-Le métabolisme élimine plus ou moins vite la plupart des toxines pénétrant l'organisme. Chez les vertébrés et certains invertébrés, cette détoxication s'accomplit dans le foie, via les systèmes enzymatiques, et notamment les cytochromes P450, en mobilisant des cofacteurs (oxygène et NADPH)[2]. Cependant ce métabolisme produit alors souvent des espèces chimiques réactives intermédiaires, électrophiles, qui sont mutagènes. Nombre de composés génotoxiques ne le deviennent qu'après avoir été métabolisé ou via une « bioactivation »[6]. Les composés génotoxiques ou leurs résidus sont le plus souvent éliminés via l'urine (qui est donc utilisée par différents tests) ou dans les excréments, la sueur...
-Typologie
-Trois grands types d'agents génotoxiques, aux mécanismes d'action très différents sont :
-des rayonnements ionisants (radioactivité) ;
-des rayonnements énergétiques mais non ionisants (ultraviolets, microondes, et notamment microondes pulsées[7]...) ;
-des « substances chimiques, souvent électrophiles, qui directement ou après bioactivation par des systèmes enzymatiques adéquats, vont se lier à l’ADN pour former des adduits. Ces adduits vont pouvoir être responsables de cassures et de pontage de l’ADN, d’erreurs de réplication et de substitution de bases »[2]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un agent mutagène peut avoir deux types d'effets :
+impact direct, conduisant à un événement clastogène (sous l'effet de la radioactivité et des rayonnements ionisants par exemple, qui sont notamment source de cassure de l'ADN double-brin, considérées comme les plus graves quant à l'effet biologique) ;
+impact indirect, qui dégrade la machinerie cellulaire de maintien et de réparation de l’intégrité du génome (ex : modification des protéines de l'appareil mitotique), conduisant à un événement aneugène, c'est dire se traduisant par des anomalies de la ségragation chromosomique).
+Le métabolisme élimine plus ou moins vite la plupart des toxines pénétrant l'organisme. Chez les vertébrés et certains invertébrés, cette détoxication s'accomplit dans le foie, via les systèmes enzymatiques, et notamment les cytochromes P450, en mobilisant des cofacteurs (oxygène et NADPH). Cependant ce métabolisme produit alors souvent des espèces chimiques réactives intermédiaires, électrophiles, qui sont mutagènes. Nombre de composés génotoxiques ne le deviennent qu'après avoir été métabolisé ou via une « bioactivation ». Les composés génotoxiques ou leurs résidus sont le plus souvent éliminés via l'urine (qui est donc utilisée par différents tests) ou dans les excréments, la sueur...
+</t>
         </is>
       </c>
     </row>
@@ -569,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9notoxicit%C3%A9</t>
+          <t>Génotoxicité</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,10 +596,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Mécanismes d'action</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Trois grands types d'agents génotoxiques, aux mécanismes d'action très différents sont :
+des rayonnements ionisants (radioactivité) ;
+des rayonnements énergétiques mais non ionisants (ultraviolets, microondes, et notamment microondes pulsées...) ;
+des « substances chimiques, souvent électrophiles, qui directement ou après bioactivation par des systèmes enzymatiques adéquats, vont se lier à l’ADN pour former des adduits. Ces adduits vont pouvoir être responsables de cassures et de pontage de l’ADN, d’erreurs de réplication et de substitution de bases »</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Génotoxicité</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9notoxicit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Champ d'étude</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce champ d'étude relève de la biogénotoxicologie, qui inclut notamment la recherche :
 des agents Clastogène et autres agents mutagènes ;
@@ -595,40 +648,7 @@
 de biomarqueurs de mutagenèse ;
 de tests de détection de mutations génomiques, chromosomiques (ex : test des comètes, test des aberrations chromosomiques, test des micronoyaux) ou de l'ADN, sur différents loci (ex : et dosage de la 8-hydroxydeoxyguanosine ou 8-OHdG ) ;
 ...chez l'homme (dans le domaine de la toxicologie) ou chez l'ensemble des espèces vivantes (écotoxicologie).
-Ce champ d'étude s'intéresse aussi aux molécules antimutagènes, qu'elles soient synthétiques ou naturelles. Quand elles sont naturelles, on les recherche dans le monde végétal, animale, fongique ou microbien qui doivent aussi lutter contre des cancérogènes environnementaux naturels ou contre des produits génotoxiques produits et/ou disséminés par l'homme. Il s'agit aussi d'étudier les mécanismes moléculaires et physiologiques expliquant ces propriétés[8].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>G%C3%A9notoxicit%C3%A9</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/G%C3%A9notoxicit%C3%A9</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Tests de génotoxiques</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe de nombreux tests de génotoxiques, notamment utilisés en écotoxicologie, en toxicologie et en santé au travail. Le tableau suivant liste ceux qui sont les plus utilisés (dans les années 2000-2010)[2].
-Pour la plupart de ces tests, des facteurs confondants existent (notamment l'âge et l'exposition au tabac, le polymorphisme d’expression des enzymes du métabolisme et du système de réparation des lésions de l’ADN, l'exposition à une autre pollution environnementale que celle qu'on veut tester, l'exercice physique, le régime alimentaire)[2]. En outre les tests utilisant des hématies (globules rouges) sont faciles à mettre en œuvre (pas besoin de culture cellulaire, hématies faciles à collecter et à conserver par simple prise de sang) mais ils ne détecteront que des mutations des cellules de la moelle osseuse[réf. souhaitée]. Le test des comètes peut être couplé à l'hybridation in situ par fluorescence (FISH) afin de détecter une mutation ou la réparation spécifique d'un gène d'intérêt[9].
-La détection d'aberrations chromosomiques est corrélée à un risque accru de cancers[10],[11].
+Ce champ d'étude s'intéresse aussi aux molécules antimutagènes, qu'elles soient synthétiques ou naturelles. Quand elles sont naturelles, on les recherche dans le monde végétal, animale, fongique ou microbien qui doivent aussi lutter contre des cancérogènes environnementaux naturels ou contre des produits génotoxiques produits et/ou disséminés par l'homme. Il s'agit aussi d'étudier les mécanismes moléculaires et physiologiques expliquant ces propriétés.
 </t>
         </is>
       </c>
@@ -639,7 +659,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>G%C3%A9notoxicit%C3%A9</t>
+          <t>Génotoxicité</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -654,18 +674,93 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Tests de génotoxiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe de nombreux tests de génotoxiques, notamment utilisés en écotoxicologie, en toxicologie et en santé au travail. Le tableau suivant liste ceux qui sont les plus utilisés (dans les années 2000-2010).
+Pour la plupart de ces tests, des facteurs confondants existent (notamment l'âge et l'exposition au tabac, le polymorphisme d’expression des enzymes du métabolisme et du système de réparation des lésions de l’ADN, l'exposition à une autre pollution environnementale que celle qu'on veut tester, l'exercice physique, le régime alimentaire). En outre les tests utilisant des hématies (globules rouges) sont faciles à mettre en œuvre (pas besoin de culture cellulaire, hématies faciles à collecter et à conserver par simple prise de sang) mais ils ne détecteront que des mutations des cellules de la moelle osseuse[réf. souhaitée]. Le test des comètes peut être couplé à l'hybridation in situ par fluorescence (FISH) afin de détecter une mutation ou la réparation spécifique d'un gène d'intérêt.
+La détection d'aberrations chromosomiques est corrélée à un risque accru de cancers,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Génotoxicité</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9notoxicit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Problèmes émergents</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Smog électromagnétique
-Des études récentes montrent qu'une partie du rayonnement électromagnétique (micro-ondes notamment) est génotoxique, or elles constituent une part croissante du smog électromagnétique auquel tous les organismes vivants sont exposés sur une part croissante de la planète. [réf. souhaitée]
-Nanotoxicologie
-Outre certains produits chimiques génotoxiques "classiques", la diffusion récente dans notre environnement de nanoparticules et nanomatériaux dont les effets sanitaires sont encore inconnus ou très mal connus préoccupe les acteurs de la santé et certains consommateurs.
-Pour mieux cerner le risque, un projet dit « Nanogenotox » projet Nanogenotox , coordonnée par l'Afsset et impliquant plusieurs pays européens, vise (sur trois ans) à donner à la Commission européenne « une méthode alternative, robuste et fiable de détection du potentiel génotoxique des nanomatériaux susceptibles d’engendrer un risque de cancer ou de toxicité pour la reproduction chez l’homme »[12].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Smog électromagnétique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des études récentes montrent qu'une partie du rayonnement électromagnétique (micro-ondes notamment) est génotoxique, or elles constituent une part croissante du smog électromagnétique auquel tous les organismes vivants sont exposés sur une part croissante de la planète. [réf. souhaitée]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Génotoxicité</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9notoxicit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Problèmes émergents</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nanotoxicologie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre certains produits chimiques génotoxiques "classiques", la diffusion récente dans notre environnement de nanoparticules et nanomatériaux dont les effets sanitaires sont encore inconnus ou très mal connus préoccupe les acteurs de la santé et certains consommateurs.
+Pour mieux cerner le risque, un projet dit « Nanogenotox » projet Nanogenotox , coordonnée par l'Afsset et impliquant plusieurs pays européens, vise (sur trois ans) à donner à la Commission européenne « une méthode alternative, robuste et fiable de détection du potentiel génotoxique des nanomatériaux susceptibles d’engendrer un risque de cancer ou de toxicité pour la reproduction chez l’homme ».
 14 nanomatériaux manufacturés (classés en trois groupes : dioxyde de titane, silice et nanotubes de carbone, trois matériaux choisis car déjà utilisés dans des produits tels que cosmétiques, aliments, produits de consommation courante) seront étudiés dont du point de vue des risques d'exposition (exposition par inhalation, par la peau ou orale, avec test in vivo).
-Il est aussi prévu d'évaluer les quantités produites en Europe[12].
+Il est aussi prévu d'évaluer les quantités produites en Europe.
 </t>
         </is>
       </c>
